--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFB1EE-B8B5-40C5-9438-4F59A19693EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Découverte de Git et Github</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +340,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFB1EE-B8B5-40C5-9438-4F59A19693EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97382C15-0269-48FF-8811-7D7BCDAB0E92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Découverte de Git et Github</t>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ACTIVITÉ</t>
+  </si>
+  <si>
+    <t>Création du GitHub / Journal d'activité / Reglage problème gitHub/ Choix Template/ Découvert du template</t>
   </si>
 </sst>
 </file>
@@ -38,15 +44,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -54,13 +72,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,26 +516,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>43777</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
       </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="C32:H33"/>
+    <mergeCell ref="C24:H25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="C20:H21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97382C15-0269-48FF-8811-7D7BCDAB0E92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A74E60-2CCA-42A4-A681-764EF11351FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Création du GitHub / Journal d'activité / Reglage problème gitHub/ Choix Template/ Découvert du template</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/11/2019</t>
+  </si>
+  <si>
+    <t>Choix des différentes tables ainsi que des différents champs présent dans la BDD/ Reflexion sur le Design de la futur page web en groupe / Création de la BDD (en cours)</t>
   </si>
 </sst>
 </file>
@@ -200,41 +206,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +525,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H5"/>
+      <selection activeCell="C6" sqref="C6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,296 +538,305 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>43777</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="C32:H33"/>
     <mergeCell ref="C24:H25"/>
     <mergeCell ref="B4:B5"/>
@@ -838,16 +853,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A74E60-2CCA-42A4-A681-764EF11351FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4CEB0-9DAE-4157-BC5B-9F5B73F74AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t xml:space="preserve"> 15/11/2019</t>
   </si>
   <si>
-    <t>Choix des différentes tables ainsi que des différents champs présent dans la BDD/ Reflexion sur le Design de la futur page web en groupe / Création de la BDD (en cours)</t>
+    <t>Choix des différentes tables ainsi que des différents champs présent dans la BDD/ Reflexion sur le Design de la futur page web en groupe / Choix des différentes thème présente sur le futur logiciel ( Année 80, RAP …) / Création de la BDD (en cours)</t>
   </si>
 </sst>
 </file>
@@ -206,6 +206,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,33 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,305 +538,300 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>43777</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
     <mergeCell ref="C32:H33"/>
     <mergeCell ref="C24:H25"/>
     <mergeCell ref="B4:B5"/>
@@ -853,11 +848,16 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4CEB0-9DAE-4157-BC5B-9F5B73F74AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2CE8AB-466E-48F7-9B57-0A9E6733434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DATE</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Choix des différentes tables ainsi que des différents champs présent dans la BDD/ Reflexion sur le Design de la futur page web en groupe / Choix des différentes thème présente sur le futur logiciel ( Année 80, RAP …) / Création de la BDD (en cours)</t>
+  </si>
+  <si>
+    <t>1. Finir la réalisation la Base De Données dans Workbench ( réussir a créer les différentes tables )</t>
+  </si>
+  <si>
+    <t>2.Implémentation de la Base De Données sur Php My Admin</t>
+  </si>
+  <si>
+    <t>3. Mise en commun en fin d'heure pour voir les différentes tâches qui ont été réalisées durant la séance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tâche à réaliser :  </t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -197,42 +209,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,6 +255,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H33"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H7"/>
+      <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,321 +589,320 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <v>43777</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11">
+        <v>43791</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
-    <mergeCell ref="C32:H33"/>
-    <mergeCell ref="C24:H25"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="C20:H21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C6:H7"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="C10:H11"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="33">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B30:B31"/>
@@ -858,6 +913,23 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C32:H33"/>
+    <mergeCell ref="C24:H25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C18:H19"/>
+    <mergeCell ref="C20:H21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2CE8AB-466E-48F7-9B57-0A9E6733434B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00526F31-4BB8-4FE8-B526-7BEAEF3CA82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DATE</t>
   </si>
@@ -43,10 +43,13 @@
     <t>2.Implémentation de la Base De Données sur Php My Admin</t>
   </si>
   <si>
-    <t>3. Mise en commun en fin d'heure pour voir les différentes tâches qui ont été réalisées durant la séance.</t>
+    <t xml:space="preserve">Tâche à réaliser :  </t>
   </si>
   <si>
-    <t xml:space="preserve">Tâche à réaliser :  </t>
+    <t>4. Mise en commun en fin d'heure pour voir les différentes tâches qui ont été réalisées durant la séance.</t>
+  </si>
+  <si>
+    <t>3. Création d'un utilisateur ayant tous les droits les privilèges sur la BDD +  connexion a la base de donnée en php.</t>
   </si>
 </sst>
 </file>
@@ -242,11 +245,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,46 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,7 +581,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+      <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,102 +594,102 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="2">
         <v>43777</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2">
         <v>43791</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -698,221 +698,216 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="32">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
     <mergeCell ref="C32:H33"/>
     <mergeCell ref="C24:H25"/>
     <mergeCell ref="B4:B5"/>
@@ -925,11 +920,19 @@
     <mergeCell ref="C12:H13"/>
     <mergeCell ref="C14:H15"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00526F31-4BB8-4FE8-B526-7BEAEF3CA82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC940827-0902-498C-AA8D-7BA033E311AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>3. Création d'un utilisateur ayant tous les droits les privilèges sur la BDD +  connexion a la base de donnée en php.</t>
+  </si>
+  <si>
+    <t>Modification de la BDD , de certaines clé primaire qui nous étais pas utiles .</t>
   </si>
 </sst>
 </file>
@@ -85,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -237,53 +240,57 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,7 +302,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -580,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,318 +628,324 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>43777</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>43791</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="3">
+        <v>43798</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="13"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="13"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="13"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:H29"/>
     <mergeCell ref="C30:H31"/>
     <mergeCell ref="C32:H33"/>
@@ -922,13 +962,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C26:H27"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC940827-0902-498C-AA8D-7BA033E311AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CF036-1199-417D-BF0C-727F080625AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,7 +52,13 @@
     <t>3. Création d'un utilisateur ayant tous les droits les privilèges sur la BDD +  connexion a la base de donnée en php.</t>
   </si>
   <si>
-    <t>Modification de la BDD , de certaines clé primaire qui nous étais pas utiles .</t>
+    <t>Modification de la BDD ,  certaines clé primaire  nous étais  inutiles .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'un fichier .sql permettant d'importer sur les PC des autres membres du groupes la BDD Commune. </t>
+  </si>
+  <si>
+    <t>Réalisation du PHP permettant, lors du choix du thème de l'utilisateur de selectionner la base correspondantes a son choix .</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -272,25 +278,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,27 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -331,6 +346,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,62 +661,62 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>43777</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10">
         <v>43791</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -696,8 +729,8 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
@@ -708,8 +741,8 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
@@ -720,8 +753,8 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
@@ -732,236 +765,217 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="10">
         <v>43798</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
-    <mergeCell ref="C32:H33"/>
-    <mergeCell ref="C24:H25"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="C18:H19"/>
-    <mergeCell ref="C20:H21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C6:H7"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="26">
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C3:H3"/>
@@ -971,6 +985,23 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C18:H21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="C30:H31"/>
+    <mergeCell ref="C32:H33"/>
+    <mergeCell ref="C24:H25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7CF036-1199-417D-BF0C-727F080625AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AD4B8-F057-4E0A-9E8D-3F3748404B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Réalisation du PHP permettant, lors du choix du thème de l'utilisateur de selectionner la base correspondantes a son choix .</t>
+  </si>
+  <si>
+    <t>Tache a réaliser :</t>
+  </si>
+  <si>
+    <t>Mise en commun avec constantin minos concernant la page theme.php et game.php, Constantin ayant été absent le 29/11/2019, j'ai repris certaines de ces taches que j'ai donc avancée.</t>
   </si>
 </sst>
 </file>
@@ -291,42 +297,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +323,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,23 +350,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,336 +661,330 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="3">
         <v>43777</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
         <v>43791</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="3">
         <v>43798</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="3">
+        <v>43805</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C26:H27"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C18:H21"/>
-    <mergeCell ref="B14:B21"/>
+  <mergeCells count="25">
     <mergeCell ref="C28:H29"/>
     <mergeCell ref="C30:H31"/>
     <mergeCell ref="C32:H33"/>
-    <mergeCell ref="C24:H25"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:H5"/>
     <mergeCell ref="C16:H17"/>
@@ -1000,8 +994,19 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C22:H23"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C18:H21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6AD4B8-F057-4E0A-9E8D-3F3748404B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5B664-0FAA-43FB-8A40-002F8BE2D383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -65,13 +65,22 @@
   </si>
   <si>
     <t>Mise en commun avec constantin minos concernant la page theme.php et game.php, Constantin ayant été absent le 29/11/2019, j'ai repris certaines de ces taches que j'ai donc avancée.</t>
+  </si>
+  <si>
+    <t>Réalisation de test permettant d'observer si lorsque l'on choisi un thème sur la page theme.php, quel la bdd thème correspond bien au choix du thème</t>
+  </si>
+  <si>
+    <t>Correction d'erreur concernant la page connexion.php ou certains données était incorrects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +88,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +115,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -129,17 +157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -293,25 +310,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,25 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,20 +382,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,345 +697,370 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>43777</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8">
         <v>43791</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="15" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
         <v>43798</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="9" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="9" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
         <v>43805</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="9" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C28:H29"/>
-    <mergeCell ref="C30:H31"/>
-    <mergeCell ref="C32:H33"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="C6:H7"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="C14:H15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="22">
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C3:H3"/>
@@ -1005,8 +1071,17 @@
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C18:H21"/>
     <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B27"/>
     <mergeCell ref="C24:H27"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="C28:H31"/>
+    <mergeCell ref="C32:H33"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="C16:H17"/>
+    <mergeCell ref="C6:H7"/>
+    <mergeCell ref="C12:H13"/>
+    <mergeCell ref="C14:H15"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Journée d'activité/Paul.xlsx
+++ b/Journée d'activité/Paul.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5B664-0FAA-43FB-8A40-002F8BE2D383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FA21D-93AD-42D6-8AD8-C0D5DEB89C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -37,43 +37,55 @@
     <t>Choix des différentes tables ainsi que des différents champs présent dans la BDD/ Reflexion sur le Design de la futur page web en groupe / Choix des différentes thème présente sur le futur logiciel ( Année 80, RAP …) / Création de la BDD (en cours)</t>
   </si>
   <si>
-    <t>1. Finir la réalisation la Base De Données dans Workbench ( réussir a créer les différentes tables )</t>
-  </si>
-  <si>
-    <t>2.Implémentation de la Base De Données sur Php My Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâche à réaliser :  </t>
-  </si>
-  <si>
-    <t>4. Mise en commun en fin d'heure pour voir les différentes tâches qui ont été réalisées durant la séance.</t>
-  </si>
-  <si>
-    <t>3. Création d'un utilisateur ayant tous les droits les privilèges sur la BDD +  connexion a la base de donnée en php.</t>
-  </si>
-  <si>
     <t>Modification de la BDD ,  certaines clé primaire  nous étais  inutiles .</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'un fichier .sql permettant d'importer sur les PC des autres membres du groupes la BDD Commune. </t>
-  </si>
-  <si>
-    <t>Réalisation du PHP permettant, lors du choix du thème de l'utilisateur de selectionner la base correspondantes a son choix .</t>
-  </si>
-  <si>
-    <t>Tache a réaliser :</t>
-  </si>
-  <si>
     <t>Mise en commun avec constantin minos concernant la page theme.php et game.php, Constantin ayant été absent le 29/11/2019, j'ai repris certaines de ces taches que j'ai donc avancée.</t>
   </si>
   <si>
-    <t>Réalisation de test permettant d'observer si lorsque l'on choisi un thème sur la page theme.php, quel la bdd thème correspond bien au choix du thème</t>
-  </si>
-  <si>
     <t>Correction d'erreur concernant la page connexion.php ou certains données était incorrects.</t>
   </si>
   <si>
     <t xml:space="preserve"> Fait</t>
+  </si>
+  <si>
+    <t>Implémentation de la Base De Données sur Php My Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reflexion sur les différents champs de table nécessaire pour la Réalisation de la BDD ainsi que sur les différentes clé étrangère.Réalisation la Base De Données dans Workbench ( réussir a créer les différentes tables ainsi que les différentes clé primaire )</t>
+  </si>
+  <si>
+    <t>Mise en commun en fin d'heure pour voir les différentes tâches qui ont été réalisées durant la séance.</t>
+  </si>
+  <si>
+    <t>Création d'un utilisateur ayant tous les droits,les privilèges sur la BDD + création d'une page connexion.php permettant de se connecter a la BDD.</t>
+  </si>
+  <si>
+    <t>Mise en place d'un fichier .sql permettant d'importer sur les PC des autres membres du groupes la BDD Commune.</t>
+  </si>
+  <si>
+    <t>Concertation avec joshua pour le page thème.php permettant, lors du choix du thème de l'utilisateur de selectionner la base correspondantes a son choix .</t>
+  </si>
+  <si>
+    <t>Réalisation de test permettant d'observer si lorsque l'on choisi un thème sur la page theme.php, que la bdd thème correspond bien au choix du thème.</t>
+  </si>
+  <si>
+    <t>Réalisation en collaboration avec constantin minos de la totalité de la page game.php. (depuis chez nous)</t>
+  </si>
+  <si>
+    <t>Remplissage de la BDD ( création de 40 artistes , création de 40 musiques qui seront jouées , création de 80 musiques qui ne seront pas jouées )</t>
+  </si>
+  <si>
+    <t>Télechargement des différentes musiques qui seront utilisées dans le fonctionnement de notre blindtest .</t>
+  </si>
+  <si>
+    <t>Mise en commun de la totalité des différentes travaux du groupes pour faire fonctionner notre Blindtest.</t>
+  </si>
+  <si>
+    <t>Finalisation de la réalisation du cahier de recette avec joshua .</t>
+  </si>
+  <si>
+    <t>Réalisation de tests permettant de confirmer le bon fonctionnement de notre blindtest.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,70 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -400,12 +352,187 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I33"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,387 +829,717 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="22" t="s">
-        <v>17</v>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>43777</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="23"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="24"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="25"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29">
         <v>43791</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>43798</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="57"/>
+    </row>
+    <row r="24" spans="2:9" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>43805</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="25"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="58"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="58"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="44"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+      <c r="C37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="25"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="25"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="25"/>
+      <c r="C41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>43798</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>43805</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="27"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="2" t="s">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>43811</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="26"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="25"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="25"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="25"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="26"/>
+      <c r="C54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="8">
+        <v>43812</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="25"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="25"/>
+      <c r="C59" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="25"/>
+      <c r="C62" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="25"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="26"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C22:H23"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C18:H21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C24:H27"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="C28:H31"/>
-    <mergeCell ref="C32:H33"/>
+  <mergeCells count="29">
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H58"/>
+    <mergeCell ref="C59:H61"/>
+    <mergeCell ref="C62:H64"/>
+    <mergeCell ref="C37:H40"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C41:H44"/>
+    <mergeCell ref="C45:H49"/>
+    <mergeCell ref="C50:H53"/>
+    <mergeCell ref="B20:B32"/>
+    <mergeCell ref="C20:H24"/>
+    <mergeCell ref="C25:H28"/>
+    <mergeCell ref="C29:H32"/>
+    <mergeCell ref="C33:H36"/>
+    <mergeCell ref="I33:I36"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:H5"/>
-    <mergeCell ref="C16:H17"/>
     <mergeCell ref="C6:H7"/>
-    <mergeCell ref="C12:H13"/>
-    <mergeCell ref="C14:H15"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="C11:H14"/>
+    <mergeCell ref="C15:H19"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>